--- a/biology/Zoologie/Hemistola_chrysoprasaria/Hemistola_chrysoprasaria.xlsx
+++ b/biology/Zoologie/Hemistola_chrysoprasaria/Hemistola_chrysoprasaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hemistola chrysoprasaria, la Phalène printanière, est un lépidoptère (papillon) de la famille des Geometridae.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Phalène printanière ou Hémithée printanière a été nommée Hemistola chrysoprasaria par Esper, en 1795.
 </t>
@@ -542,11 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'imago a une envergure de 28 à 32 mm.Les ailes étalées au repos montrent 2 fins liserés clairs traversant les antérieures et un seul aux postérieures.Couleur dominante vert clair, parfois plus terne.
-Chenille
-La chenille est vert pâle, parsemée de points blancs, a la tête brune. Elle se nourrit des feuilles de clématites dont la clématite vigne-blanche[1]. Elle hiberne dans le sol.
 </t>
         </is>
       </c>
@@ -572,13 +586,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol
-La Phalène printanière vole d'avril à août en fonction de l'emplacement, en une seule génération, deux dans le sud, alors active jusqu'en septembre[2].
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est vert pâle, parsemée de points blancs, a la tête brune. Elle se nourrit des feuilles de clématites dont la clématite vigne-blanche. Elle hiberne dans le sol.
 </t>
         </is>
       </c>
@@ -604,17 +623,126 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Période de vol</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Phalène printanière vole d'avril à août en fonction de l'emplacement, en une seule génération, deux dans le sud, alors active jusqu'en septembre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hemistola_chrysoprasaria</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hemistola_chrysoprasaria</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La Phalène printanière est présente depuis l'Europe jusqu'en Sibérie.
-Elle est présente dans presque tous les départements de France métropolitaine[3]
-Biotope
-Elle affectionne les lisières des bois et les haies surtout sur terrains calcaires ou crayeux des vallées bien abritées, des coteaux ensoleillés; commune dans les régions montagneuses chaudes du sud.
-Protection
-Pas de statut de protection particulier.
+Elle est présente dans presque tous les départements de France métropolitaine
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hemistola_chrysoprasaria</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hemistola_chrysoprasaria</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle affectionne les lisières des bois et les haies surtout sur terrains calcaires ou crayeux des vallées bien abritées, des coteaux ensoleillés; commune dans les régions montagneuses chaudes du sud.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hemistola_chrysoprasaria</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hemistola_chrysoprasaria</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
